--- a/data/trans_camb/P32B-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,9</t>
+          <t>0,27; 4,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 4,79</t>
+          <t>0,07; 4,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 5,64</t>
+          <t>0,03; 6,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 0,0</t>
+          <t>-3,87; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 1,21</t>
+          <t>-2,49; 1,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,31</t>
+          <t>-2,02; 2,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 3,29</t>
+          <t>-0,29; 2,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,75</t>
+          <t>-0,24; 2,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 4,22</t>
+          <t>-0,03; 3,84</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-46,28; —</t>
+          <t>-43,54; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-62,8; —</t>
+          <t>-65,34; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,03; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,67; —</t>
+          <t>-54,89; 1459,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-60,43; —</t>
+          <t>-49,62; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,47; 1976,07</t>
+          <t>-29,86; —</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,79</t>
+          <t>-1,32; 0,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,49</t>
+          <t>-0,47; 3,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,77</t>
+          <t>-1,32; 0,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 3,24</t>
+          <t>-2,04; 3,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 0,64</t>
+          <t>-3,35; 1,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 3,47</t>
+          <t>-1,98; 3,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,3</t>
+          <t>-1,12; 1,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,7</t>
+          <t>-1,06; 1,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,46</t>
+          <t>-0,91; 1,6</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-78,42; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-85,09; —</t>
+          <t>-86,58; 672,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-73,65; —</t>
+          <t>-72,31; —</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 6,39</t>
+          <t>1,53; 6,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,1</t>
+          <t>-0,14; 3,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 4,41</t>
+          <t>-0,06; 4,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,75</t>
+          <t>0,0; 13,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,06</t>
+          <t>1,13; 5,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,42</t>
+          <t>0,45; 3,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 3,68</t>
+          <t>-0,12; 3,52</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,93; —</t>
+          <t>22,55; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-71,81; —</t>
+          <t>-74,82; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,98; —</t>
+          <t>29,75; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,69; —</t>
+          <t>-31,7; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-83,49; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,83</t>
+          <t>0,59; 4,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,75</t>
+          <t>-0,47; 2,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,16</t>
+          <t>-0,54; 2,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 0,42</t>
+          <t>-3,95; 0,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 1,51</t>
+          <t>-2,91; 1,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 0,38</t>
+          <t>-4,11; 0,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 2,64</t>
+          <t>-0,02; 2,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,91</t>
+          <t>-0,62; 1,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,43</t>
+          <t>-1,15; 1,4</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,41; 602,59</t>
+          <t>5,02; 602,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,23; 430,6</t>
+          <t>-34,73; 384,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,97; 425,99</t>
+          <t>-46,26; 422,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-91,26; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 324,2</t>
+          <t>-16,95; 331,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,44; 216,24</t>
+          <t>-35,82; 235,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-64,58; 154,08</t>
+          <t>-61,06; 173,05</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 2,84</t>
+          <t>-0,32; 2,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,61</t>
+          <t>-0,11; 3,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,91</t>
+          <t>0,68; 5,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 1,65</t>
+          <t>-3,63; 1,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 0,0</t>
+          <t>-4,89; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 3,14</t>
+          <t>-2,79; 3,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,81</t>
+          <t>-0,94; 1,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,64</t>
+          <t>-1,17; 1,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,57</t>
+          <t>0,06; 3,48</t>
         </is>
       </c>
     </row>
@@ -1680,22 +1680,22 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-86,81; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-69,77; —</t>
+          <t>-66,9; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-77,34; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 1505,45</t>
+          <t>-27,46; 1114,63</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,12; 8,65</t>
+          <t>0,67; 8,57</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,39</t>
+          <t>-1,0; 4,21</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,0</t>
+          <t>-5,27; 0,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 1,47</t>
+          <t>-1,03; 1,77</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 2,73</t>
+          <t>-0,55; 2,76</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 9,13</t>
+          <t>-0,93; 8,85</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,14; 3,57</t>
+          <t>0,08; 3,36</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 2,79</t>
+          <t>-0,07; 2,83</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 4,94</t>
+          <t>-0,87; 4,5</t>
         </is>
       </c>
     </row>
@@ -1901,12 +1901,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-31,45; —</t>
+          <t>-28,72; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,57; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,07</t>
+          <t>1,27; 2,94</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,1</t>
+          <t>0,58; 2,12</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,2</t>
+          <t>0,29; 2,06</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,45</t>
+          <t>-1,23; 0,37</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 0,81</t>
+          <t>-0,98; 0,88</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,2</t>
+          <t>-0,9; 1,19</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,9</t>
+          <t>0,64; 1,9</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,46</t>
+          <t>0,23; 1,42</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,56</t>
+          <t>0,14; 1,51</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>86,06; 547,0</t>
+          <t>92,7; 534,12</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>31,96; 375,4</t>
+          <t>37,22; 397,11</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>17,45; 336,67</t>
+          <t>22,15; 388,76</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-79,28; 87,59</t>
+          <t>-80,22; 86,74</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-58,57; 156,09</t>
+          <t>-61,63; 165,1</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-55,1; 217,25</t>
+          <t>-57,79; 210,12</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>49,21; 293,35</t>
+          <t>51,46; 294,19</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>18,24; 226,58</t>
+          <t>18,84; 226,39</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>10,12; 230,25</t>
+          <t>9,06; 221,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32B-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
